--- a/stock_historical_data/1wk/JKPAPER.NS.xlsx
+++ b/stock_historical_data/1wk/JKPAPER.NS.xlsx
@@ -53043,7 +53043,9 @@
       <c r="P992" t="n">
         <v>0</v>
       </c>
-      <c r="Q992" t="inlineStr"/>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKPAPER.NS.xlsx
+++ b/stock_historical_data/1wk/JKPAPER.NS.xlsx
@@ -56077,7 +56077,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKPAPER.NS.xlsx
+++ b/stock_historical_data/1wk/JKPAPER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R993"/>
+  <dimension ref="A1:R995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55845,7 +55845,7 @@
         <v>20</v>
       </c>
       <c r="O989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P989" t="n">
         <v>0</v>
@@ -56080,6 +56080,114 @@
       <c r="R993" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B994" t="n">
+        <v>490.7999877929688</v>
+      </c>
+      <c r="C994" t="n">
+        <v>527.9500122070312</v>
+      </c>
+      <c r="D994" t="n">
+        <v>487.2999877929688</v>
+      </c>
+      <c r="E994" t="n">
+        <v>509.7000122070312</v>
+      </c>
+      <c r="F994" t="n">
+        <v>509.7000122070312</v>
+      </c>
+      <c r="G994" t="n">
+        <v>14604788</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>6</v>
+      </c>
+      <c r="J994" t="n">
+        <v>17</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>25</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>0</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B995" t="n">
+        <v>520</v>
+      </c>
+      <c r="C995" t="n">
+        <v>562</v>
+      </c>
+      <c r="D995" t="n">
+        <v>516.5999755859375</v>
+      </c>
+      <c r="E995" t="n">
+        <v>542.1500244140625</v>
+      </c>
+      <c r="F995" t="n">
+        <v>542.1500244140625</v>
+      </c>
+      <c r="G995" t="n">
+        <v>19894596</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>6</v>
+      </c>
+      <c r="J995" t="n">
+        <v>24</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>26</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>1</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKPAPER.NS.xlsx
+++ b/stock_historical_data/1wk/JKPAPER.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R995"/>
+  <dimension ref="A1:R1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -56133,7 +56133,9 @@
       <c r="Q994" t="n">
         <v>0</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56187,7 +56189,1829 @@
       <c r="Q995" t="n">
         <v>1</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B996" t="n">
+        <v>542.4348605593306</v>
+      </c>
+      <c r="C996" t="n">
+        <v>632.2632612815189</v>
+      </c>
+      <c r="D996" t="n">
+        <v>525.9044430541113</v>
+      </c>
+      <c r="E996" t="n">
+        <v>570.2990112304688</v>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="n">
+        <v>44679999</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>7</v>
+      </c>
+      <c r="J996" t="n">
+        <v>1</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>27</v>
+      </c>
+      <c r="O996" t="n">
+        <v>1</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B997" t="n">
+        <v>570.2990054834937</v>
+      </c>
+      <c r="C997" t="n">
+        <v>584.9981740146885</v>
+      </c>
+      <c r="D997" t="n">
+        <v>536.4957873366518</v>
+      </c>
+      <c r="E997" t="n">
+        <v>554.1644897460938</v>
+      </c>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="n">
+        <v>5311155</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>7</v>
+      </c>
+      <c r="J997" t="n">
+        <v>8</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>28</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B998" t="n">
+        <v>559.2622300304262</v>
+      </c>
+      <c r="C998" t="n">
+        <v>592.9169482977438</v>
+      </c>
+      <c r="D998" t="n">
+        <v>540.4551815869251</v>
+      </c>
+      <c r="E998" t="n">
+        <v>545.0579833984375</v>
+      </c>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="n">
+        <v>4648558</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>7</v>
+      </c>
+      <c r="J998" t="n">
+        <v>15</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>29</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B999" t="n">
+        <v>541.395545628505</v>
+      </c>
+      <c r="C999" t="n">
+        <v>567.8244099753291</v>
+      </c>
+      <c r="D999" t="n">
+        <v>493.8830022329823</v>
+      </c>
+      <c r="E999" t="n">
+        <v>515.758544921875</v>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="n">
+        <v>4243395</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>7</v>
+      </c>
+      <c r="J999" t="n">
+        <v>22</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>30</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>518.8765677617386</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>525.6074991708814</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>479.1837920088084</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>492.3982238769531</v>
+      </c>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="n">
+        <v>3896708</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>489.8246091812217</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>491.952769041984</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>449.4389311433199</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>481.3614196777344</v>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="n">
+        <v>3971057</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>480.0746499377804</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>493.932474884438</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>465.5734320172745</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>476.9071350097656</v>
+      </c>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="n">
+        <v>2040551</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>479.0847966079251</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>495.9121551664679</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>463.692724833028</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>470.3741760253906</v>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="n">
+        <v>3457112</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>477.3999938964844</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>478.8999938964844</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>455.5</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>458.9500122070312</v>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="n">
+        <v>1775269</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>461.4500122070312</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>478.4500122070312</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>446.2000122070312</v>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="n">
+        <v>3039496</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>449.1499938964844</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>459.8999938964844</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>429.1000061035156</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>455.5</v>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="n">
+        <v>3572763</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>459.7000122070312</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>474</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>457.0499877929688</v>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="n">
+        <v>2909735</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>458.8999938964844</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>465.8999938964844</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>447.5499877929688</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>450</v>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="n">
+        <v>2406757</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>452.5</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>494.9500122070312</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>444.75</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>490.1000061035156</v>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="n">
+        <v>8051541</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>523.3499755859375</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>505.6000061035156</v>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="n">
+        <v>9364648</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>502</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>517.4500122070312</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>480.1499938964844</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>489.5499877929688</v>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="n">
+        <v>2872295</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>492.6000061035156</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>439</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>440.5499877929688</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>1996238</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>442</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>468</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>434.25</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>466.7999877929688</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>1190687</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>462.8999938964844</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>468.3500061035156</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>426</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>3441786</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>443.75</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>395.2999877929688</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>397.2000122070312</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>1796650</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>397.3999938964844</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>414.4500122070312</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>388.1000061035156</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>402.9500122070312</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>1148683</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>407</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>406.75</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>423.3999938964844</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>1307969</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>420.1499938964844</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>485</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>420.1499938964844</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>483.1499938964844</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>7014758</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>490.5499877929688</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>452.0499877929688</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>454.8999938964844</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>3110098</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>464</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>482.2000122070312</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>434</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>435.7000122070312</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>4116653</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>444</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>421.0499877929688</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>425.2000122070312</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>810062</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>426.8999938964844</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>431.2000122070312</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>402.0499877929688</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>422.8999938964844</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>2004590</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>422.8500061035156</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>425.3500061035156</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>398</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>403.8999938964844</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>1146380</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>398</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>406.8500061035156</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>382.4500122070312</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>391.2000122070312</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>1361556</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>391.25</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>383.2000122070312</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>391.7000122070312</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>1650276</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>390.8500061035156</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>391.7000122070312</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>350.1499938964844</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>2693940</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>365.7999877929688</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>375.7000122070312</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>338.1499938964844</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>2243395</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>342.7999877929688</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>342.7999877929688</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>312</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>317.1000061035156</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>2169315</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>327.1000061035156</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>292.1499938964844</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>294.9500122070312</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>3653064</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>293.5499877929688</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>298.8999938964844</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>287.4500122070312</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>3344712</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKPAPER.NS.xlsx
+++ b/stock_historical_data/1wk/JKPAPER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1030"/>
+  <dimension ref="A1:R1039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -56243,7 +56243,9 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56295,7 +56297,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56347,7 +56351,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56399,7 +56405,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56451,7 +56459,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56503,7 +56513,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56555,7 +56567,9 @@
       <c r="Q1002" t="n">
         <v>2</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56607,7 +56621,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56659,7 +56675,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56711,7 +56729,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56763,7 +56783,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56815,7 +56837,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56867,7 +56891,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56919,7 +56945,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -56971,7 +56999,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57023,7 +57053,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57075,7 +57107,9 @@
       <c r="Q1012" t="n">
         <v>1</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57127,7 +57161,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57179,7 +57215,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57231,7 +57269,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57283,7 +57323,9 @@
       <c r="Q1016" t="n">
         <v>2</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57335,7 +57377,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57387,7 +57431,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57439,7 +57485,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57491,7 +57539,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57543,7 +57593,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57595,7 +57647,9 @@
       <c r="Q1022" t="n">
         <v>1</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -57647,7 +57701,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57699,7 +57755,9 @@
       <c r="Q1024" t="n">
         <v>0</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57751,7 +57809,9 @@
       <c r="Q1025" t="n">
         <v>2</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57803,7 +57863,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57855,7 +57917,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -57907,7 +57971,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -57959,7 +58025,9 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -58011,7 +58079,477 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>292.1000061035156</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>314</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>310.1000061035156</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>3299418</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>312.2000122070312</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>312.8999938964844</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>290.75</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>297.5499877929688</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>3157542</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>299.8500061035156</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>287.7000122070312</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>318.3500061035156</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>2426242</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>3376237</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>330.5499877929688</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>1592098</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>300</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>323.5499877929688</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>290</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>320.6000061035156</v>
+      </c>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="n">
+        <v>1075790</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>327</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>333.5499877929688</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>322.25</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="n">
+        <v>839128</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>337</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>348.7999877929688</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>323.2999877929688</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="n">
+        <v>1520178</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>325.1000061035156</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>334.5499877929688</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>313</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>314.7000122070312</v>
+      </c>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="n">
+        <v>934975</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
